--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,24 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -82,259 +82,241 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>always</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -695,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -782,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6296296296296297</v>
+        <v>0.55</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8606811145510835</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3773584905660378</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
@@ -964,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3720930232558139</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.7391304347826086</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3535353535353535</v>
+        <v>0.36</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.7056277056277056</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L9">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M9">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,37 +1096,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2307692307692308</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1297297297297297</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1214,13 +1196,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.6753246753246753</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,13 +1222,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.6677966101694915</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L13">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1292,13 +1274,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6444444444444445</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1300,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.630016051364366</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L16">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M16">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1344,13 +1326,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.5882352941176471</v>
+        <v>0.609375</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1370,13 +1352,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.5600000000000001</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1388,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1396,13 +1378,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.5555555555555556</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1414,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1422,13 +1404,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5428571428571428</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1440,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1448,13 +1430,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5389221556886228</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L21">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1466,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1474,13 +1456,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5180722891566265</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1492,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1500,13 +1482,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.515625</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1518,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1526,13 +1508,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1544,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1552,13 +1534,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1570,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1578,13 +1560,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5079365079365079</v>
+        <v>0.52</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1596,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1604,13 +1586,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1622,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1630,13 +1612,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4912280701754386</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1648,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1656,13 +1638,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1674,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1708,13 +1690,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1726,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1734,13 +1716,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4210526315789473</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1752,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1760,13 +1742,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4166666666666667</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1778,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1786,13 +1768,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4036144578313253</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L34">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1804,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1812,13 +1794,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.392156862745098</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1830,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1838,13 +1820,13 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1856,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1864,13 +1846,13 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3657587548638132</v>
+        <v>0.375</v>
       </c>
       <c r="L37">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="M37">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1882,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>163</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1890,13 +1872,13 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.3553921568627451</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L38">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1908,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>263</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1916,13 +1898,13 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3538461538461539</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1934,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1942,13 +1924,13 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3392857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1960,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1968,13 +1950,13 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.3382352941176471</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1986,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1994,13 +1976,13 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.3301369863013698</v>
+        <v>0.3205479452054795</v>
       </c>
       <c r="L42">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M42">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2012,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2020,13 +2002,13 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.3265306122448979</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2038,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2046,13 +2028,13 @@
         <v>59</v>
       </c>
       <c r="K44">
-        <v>0.3082706766917293</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2064,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2072,13 +2054,13 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.2847682119205298</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2090,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2098,13 +2080,13 @@
         <v>61</v>
       </c>
       <c r="K46">
-        <v>0.2741935483870968</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2116,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2124,13 +2106,13 @@
         <v>62</v>
       </c>
       <c r="K47">
-        <v>0.2631578947368421</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2142,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>154</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2150,13 +2132,13 @@
         <v>63</v>
       </c>
       <c r="K48">
-        <v>0.2619047619047619</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2168,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2176,13 +2158,13 @@
         <v>64</v>
       </c>
       <c r="K49">
-        <v>0.2522522522522522</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="L49">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2194,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2202,13 +2184,13 @@
         <v>65</v>
       </c>
       <c r="K50">
-        <v>0.25</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2220,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2228,13 +2210,13 @@
         <v>66</v>
       </c>
       <c r="K51">
-        <v>0.2469135802469136</v>
+        <v>0.232508073196986</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2246,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>61</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2254,13 +2236,13 @@
         <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2432432432432433</v>
+        <v>0.2248803827751196</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2272,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2280,13 +2262,13 @@
         <v>68</v>
       </c>
       <c r="K53">
-        <v>0.2411194833153929</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L53">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2298,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>705</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2306,13 +2288,13 @@
         <v>69</v>
       </c>
       <c r="K54">
-        <v>0.2407407407407407</v>
+        <v>0.1943573667711599</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2324,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>82</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2332,13 +2314,13 @@
         <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2376237623762376</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2350,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>77</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2358,13 +2340,13 @@
         <v>71</v>
       </c>
       <c r="K56">
-        <v>0.2086330935251799</v>
+        <v>0.1867549668874172</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2376,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>110</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2384,13 +2366,13 @@
         <v>72</v>
       </c>
       <c r="K57">
-        <v>0.2039735099337748</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L57">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2402,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>601</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2410,13 +2392,13 @@
         <v>73</v>
       </c>
       <c r="K58">
-        <v>0.1918158567774936</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="L58">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2428,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>632</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2436,25 +2418,25 @@
         <v>74</v>
       </c>
       <c r="K59">
-        <v>0.1786833855799373</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L59">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M59">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2462,25 +2444,25 @@
         <v>75</v>
       </c>
       <c r="K60">
-        <v>0.1768292682926829</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2488,25 +2470,25 @@
         <v>76</v>
       </c>
       <c r="K61">
-        <v>0.1696428571428572</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2514,13 +2496,13 @@
         <v>77</v>
       </c>
       <c r="K62">
-        <v>0.1630434782608696</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2532,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2540,13 +2522,13 @@
         <v>78</v>
       </c>
       <c r="K63">
-        <v>0.1523809523809524</v>
+        <v>0.15</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2558,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2566,13 +2548,13 @@
         <v>79</v>
       </c>
       <c r="K64">
-        <v>0.1454545454545454</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L64">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2584,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>376</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2592,25 +2574,25 @@
         <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1405405405405405</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L65">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M65">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>318</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2618,13 +2600,13 @@
         <v>81</v>
       </c>
       <c r="K66">
-        <v>0.139344262295082</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2636,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>105</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2644,13 +2626,13 @@
         <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1342281879194631</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2662,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>129</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2670,13 +2652,13 @@
         <v>83</v>
       </c>
       <c r="K68">
-        <v>0.1299435028248588</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M68">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2688,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>154</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2696,13 +2678,13 @@
         <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1296296296296296</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2714,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>235</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2722,13 +2704,13 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>0.119047619047619</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2740,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>111</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2748,13 +2730,13 @@
         <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1180811808118081</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2766,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2774,13 +2756,13 @@
         <v>87</v>
       </c>
       <c r="K72">
-        <v>0.116945107398568</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L72">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2792,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>370</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2800,13 +2782,13 @@
         <v>88</v>
       </c>
       <c r="K73">
-        <v>0.1162280701754386</v>
+        <v>0.09069212410501193</v>
       </c>
       <c r="L73">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M73">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2818,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2826,13 +2808,13 @@
         <v>89</v>
       </c>
       <c r="K74">
-        <v>0.1153846153846154</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2844,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>115</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2852,13 +2834,13 @@
         <v>90</v>
       </c>
       <c r="K75">
-        <v>0.1133004926108374</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2870,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2878,13 +2860,13 @@
         <v>91</v>
       </c>
       <c r="K76">
-        <v>0.1090909090909091</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2896,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>147</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2904,13 +2886,13 @@
         <v>92</v>
       </c>
       <c r="K77">
-        <v>0.1046228710462287</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L77">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2922,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>368</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2930,13 +2912,13 @@
         <v>93</v>
       </c>
       <c r="K78">
-        <v>0.09803921568627451</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2948,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>138</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2956,13 +2938,13 @@
         <v>94</v>
       </c>
       <c r="K79">
-        <v>0.09278350515463918</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="L79">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M79">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2974,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2982,25 +2964,25 @@
         <v>95</v>
       </c>
       <c r="K80">
-        <v>0.09202453987730061</v>
+        <v>0.05308464849354376</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>148</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3008,13 +2990,13 @@
         <v>96</v>
       </c>
       <c r="K81">
-        <v>0.07276119402985075</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="L81">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3026,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>994</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3034,25 +3016,25 @@
         <v>97</v>
       </c>
       <c r="K82">
-        <v>0.07246376811594203</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L82">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>192</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3060,25 +3042,25 @@
         <v>98</v>
       </c>
       <c r="K83">
-        <v>0.07142857142857142</v>
+        <v>0.04423076923076923</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>221</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3086,25 +3068,25 @@
         <v>99</v>
       </c>
       <c r="K84">
-        <v>0.06048387096774194</v>
+        <v>0.04251386321626617</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>233</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3112,181 +3094,25 @@
         <v>100</v>
       </c>
       <c r="K85">
-        <v>0.05737704918032787</v>
+        <v>0.02230971128608924</v>
       </c>
       <c r="L85">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K86">
-        <v>0.05730129390018484</v>
-      </c>
-      <c r="L86">
-        <v>31</v>
-      </c>
-      <c r="M86">
-        <v>32</v>
-      </c>
-      <c r="N86">
-        <v>0.97</v>
-      </c>
-      <c r="O86">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K87">
-        <v>0.05514705882352941</v>
-      </c>
-      <c r="L87">
-        <v>15</v>
-      </c>
-      <c r="M87">
-        <v>15</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K88">
-        <v>0.054519368723099</v>
-      </c>
-      <c r="L88">
-        <v>38</v>
-      </c>
-      <c r="M88">
-        <v>39</v>
-      </c>
-      <c r="N88">
-        <v>0.97</v>
-      </c>
-      <c r="O88">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K89">
-        <v>0.04060913705583756</v>
-      </c>
-      <c r="L89">
-        <v>16</v>
-      </c>
-      <c r="M89">
-        <v>16</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K90">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="L90">
-        <v>42</v>
-      </c>
-      <c r="M90">
-        <v>44</v>
-      </c>
-      <c r="N90">
-        <v>0.95</v>
-      </c>
-      <c r="O90">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K91">
-        <v>0.02884615384615385</v>
-      </c>
-      <c r="L91">
-        <v>15</v>
-      </c>
-      <c r="M91">
-        <v>17</v>
-      </c>
-      <c r="N91">
-        <v>0.88</v>
-      </c>
-      <c r="O91">
-        <v>0.12</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>505</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
